--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem1/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem1/67/word_level_predictions_67.xlsx
@@ -4477,7 +4477,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G78" t="b">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G79" t="b">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -7054,468 +7054,468 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="n">
+      <c r="A128" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B128" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C128" s="2" t="inlineStr">
         <is>
           <t>Initiating</t>
         </is>
       </c>
-      <c r="D128" t="n">
+      <c r="D128" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="E128" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G128" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I128" t="b">
-        <v>1</v>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K128" t="b">
-        <v>1</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F128" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G128" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I128" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J128" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K128" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L128" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="n">
+      <c r="A129" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B129" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C129" s="2" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D129" t="n">
+      <c r="D129" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G129" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I129" t="b">
-        <v>1</v>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K129" t="b">
-        <v>1</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E129" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F129" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G129" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I129" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J129" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K129" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L129" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="n">
+      <c r="A130" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B130" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C130" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D130" t="n">
+      <c r="D130" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G130" t="b">
-        <v>1</v>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I130" t="b">
-        <v>1</v>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K130" t="b">
-        <v>1</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E130" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F130" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G130" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J130" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L130" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n">
+      <c r="A131" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B131" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C131" s="2" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D131" t="n">
+      <c r="D131" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G131" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I131" t="b">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K131" t="b">
-        <v>1</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E131" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F131" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G131" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J131" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L131" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
+      <c r="A132" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B132" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C132" s="2" t="inlineStr">
         <is>
           <t>will</t>
         </is>
       </c>
-      <c r="D132" t="n">
+      <c r="D132" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G132" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I132" t="b">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K132" t="b">
-        <v>1</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E132" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F132" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G132" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J132" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L132" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
+      <c r="A133" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B133" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C133" s="2" t="inlineStr">
         <is>
           <t>now</t>
         </is>
       </c>
-      <c r="D133" t="n">
+      <c r="D133" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G133" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I133" t="b">
-        <v>1</v>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K133" t="b">
-        <v>1</v>
-      </c>
-      <c r="L133" t="inlineStr">
+      <c r="E133" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F133" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G133" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J133" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L133" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="n">
+      <c r="A134" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B134" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C134" s="2" t="inlineStr">
         <is>
           <t>trigger</t>
         </is>
       </c>
-      <c r="D134" t="n">
+      <c r="D134" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G134" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I134" t="b">
-        <v>1</v>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K134" t="b">
-        <v>1</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E134" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F134" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G134" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J134" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L134" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n">
+      <c r="A135" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B135" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C135" s="2" t="inlineStr">
         <is>
           <t>Auto</t>
         </is>
       </c>
-      <c r="D135" t="n">
+      <c r="D135" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G135" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I135" t="b">
-        <v>1</v>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K135" t="b">
-        <v>1</v>
-      </c>
-      <c r="L135" t="inlineStr">
+      <c r="E135" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F135" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G135" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J135" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L135" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="n">
+      <c r="A136" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B136" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="C136" s="2" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D136" t="n">
+      <c r="D136" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="E136" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="F136" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G136" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I136" t="b">
-        <v>1</v>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K136" t="b">
-        <v>1</v>
-      </c>
-      <c r="L136" t="inlineStr">
+      <c r="G136" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J136" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L136" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -8793,81 +8793,81 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G161" t="b">
+        <v>1</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I161" t="b">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K161" t="b">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>14</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Drag a box around or tap a target on screen Then tap Go .</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>12</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G161" t="b">
-        <v>1</v>
-      </c>
-      <c r="H161" t="inlineStr">
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G162" t="b">
+        <v>1</v>
+      </c>
+      <c r="H162" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I161" t="b">
-        <v>1</v>
-      </c>
-      <c r="J161" t="inlineStr">
+      <c r="I162" t="b">
+        <v>1</v>
+      </c>
+      <c r="J162" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K161" t="b">
-        <v>1</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B162" s="2" t="inlineStr">
-        <is>
-          <t>Drag a box around or tap a target on screen Then tap Go .</t>
-        </is>
-      </c>
-      <c r="C162" s="2" t="inlineStr">
-        <is>
-          <t>Go</t>
-        </is>
-      </c>
-      <c r="D162" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E162" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F162" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G162" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H162" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I162" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J162" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K162" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L162" s="2" t="inlineStr">
+      <c r="K162" t="b">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -9446,678 +9446,678 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
+      <c r="A174" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B174" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="C174" s="2" t="inlineStr">
         <is>
           <t>Motor</t>
         </is>
       </c>
-      <c r="D174" t="n">
-        <v>0</v>
-      </c>
-      <c r="E174" t="inlineStr">
+      <c r="D174" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="F174" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G174" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I174" t="b">
-        <v>1</v>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K174" t="b">
-        <v>1</v>
-      </c>
-      <c r="L174" t="inlineStr">
+      <c r="G174" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J174" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L174" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n">
+      <c r="A175" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B175" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="C175" s="2" t="inlineStr">
         <is>
           <t>Obstructed</t>
         </is>
       </c>
-      <c r="D175" t="n">
-        <v>1</v>
-      </c>
-      <c r="E175" t="inlineStr">
+      <c r="D175" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E175" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G175" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I175" t="b">
-        <v>1</v>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K175" t="b">
-        <v>1</v>
-      </c>
-      <c r="L175" t="inlineStr">
+      <c r="F175" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G175" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J175" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L175" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
+      <c r="A176" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B176" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="C176" s="2" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D176" t="n">
+      <c r="D176" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="E176" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G176" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I176" t="b">
-        <v>1</v>
-      </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K176" t="b">
-        <v>1</v>
-      </c>
-      <c r="L176" t="inlineStr">
+      <c r="F176" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G176" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J176" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L176" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="n">
+      <c r="A177" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B177" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
+      <c r="C177" s="2" t="inlineStr">
         <is>
           <t>output</t>
         </is>
       </c>
-      <c r="D177" t="n">
+      <c r="D177" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G177" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I177" t="b">
-        <v>1</v>
-      </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K177" t="b">
-        <v>1</v>
-      </c>
-      <c r="L177" t="inlineStr">
+      <c r="E177" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F177" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G177" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J177" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L177" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="n">
+      <c r="A178" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B178" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="C178" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D178" t="n">
+      <c r="D178" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G178" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I178" t="b">
-        <v>1</v>
-      </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K178" t="b">
-        <v>1</v>
-      </c>
-      <c r="L178" t="inlineStr">
+      <c r="E178" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F178" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G178" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J178" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L178" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="n">
+      <c r="A179" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B179" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
+      <c r="C179" s="2" t="inlineStr">
         <is>
           <t>limited</t>
         </is>
       </c>
-      <c r="D179" t="n">
+      <c r="D179" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G179" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I179" t="b">
-        <v>1</v>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K179" t="b">
-        <v>1</v>
-      </c>
-      <c r="L179" t="inlineStr">
+      <c r="E179" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F179" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G179" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J179" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L179" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
+      <c r="A180" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B180" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="C180" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D180" t="n">
+      <c r="D180" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G180" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" t="b">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K180" t="b">
-        <v>1</v>
-      </c>
-      <c r="L180" t="inlineStr">
+      <c r="E180" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F180" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G180" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J180" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L180" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
+      <c r="A181" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B181" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
+      <c r="C181" s="2" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D181" t="n">
+      <c r="D181" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" t="b">
-        <v>1</v>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K181" t="b">
-        <v>1</v>
-      </c>
-      <c r="L181" t="inlineStr">
+      <c r="E181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J181" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L181" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="n">
+      <c r="A182" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B182" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="C182" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D182" t="n">
+      <c r="D182" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" t="b">
-        <v>1</v>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K182" t="b">
-        <v>1</v>
-      </c>
-      <c r="L182" t="inlineStr">
+      <c r="E182" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G182" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J182" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L182" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="n">
+      <c r="A183" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="B183" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
+      <c r="C183" s="2" t="inlineStr">
         <is>
           <t>health</t>
         </is>
       </c>
-      <c r="D183" t="n">
+      <c r="D183" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" t="b">
-        <v>1</v>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K183" t="b">
-        <v>1</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E183" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F183" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G183" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J183" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L183" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
+      <c r="A184" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B184" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="C184" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D184" t="n">
+      <c r="D184" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G184" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I184" t="b">
-        <v>1</v>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K184" t="b">
-        <v>1</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E184" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F184" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G184" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J184" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L184" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n">
+      <c r="A185" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B185" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C185" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D185" t="n">
+      <c r="D185" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G185" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I185" t="b">
-        <v>1</v>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K185" t="b">
-        <v>1</v>
-      </c>
-      <c r="L185" t="inlineStr">
+      <c r="E185" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F185" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G185" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J185" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L185" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n">
+      <c r="A186" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B186" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="C186" s="2" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D186" t="n">
+      <c r="D186" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="E186" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G186" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I186" t="b">
-        <v>1</v>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K186" t="b">
-        <v>1</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F186" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G186" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J186" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L186" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -10694,312 +10694,312 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n">
+      <c r="A198" t="n">
         <v>18</v>
       </c>
-      <c r="B198" s="2" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C198" s="2" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D198" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E198" s="2" t="inlineStr">
+      <c r="D198" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F198" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G198" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" s="2" t="inlineStr">
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G198" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L198" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I198" t="b">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K198" t="b">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="n">
+      <c r="A199" t="n">
         <v>18</v>
       </c>
-      <c r="B199" s="2" t="inlineStr">
+      <c r="B199" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C199" s="2" t="inlineStr">
+      <c r="C199" t="inlineStr">
         <is>
           <t>ActiveTrack</t>
         </is>
       </c>
-      <c r="D199" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E199" s="2" t="inlineStr">
+      <c r="D199" t="n">
+        <v>1</v>
+      </c>
+      <c r="E199" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F199" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G199" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" s="2" t="inlineStr">
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G199" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J199" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L199" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I199" t="b">
+        <v>1</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K199" t="b">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="2" t="n">
+      <c r="A200" t="n">
         <v>18</v>
       </c>
-      <c r="B200" s="2" t="inlineStr">
+      <c r="B200" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C200" s="2" t="inlineStr">
+      <c r="C200" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D200" s="2" t="n">
+      <c r="D200" t="n">
         <v>2</v>
       </c>
-      <c r="E200" s="2" t="inlineStr">
+      <c r="E200" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F200" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G200" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H200" s="2" t="inlineStr">
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G200" t="b">
+        <v>1</v>
+      </c>
+      <c r="H200" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I200" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J200" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K200" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L200" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I200" t="b">
+        <v>1</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K200" t="b">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="2" t="n">
+      <c r="A201" t="n">
         <v>18</v>
       </c>
-      <c r="B201" s="2" t="inlineStr">
+      <c r="B201" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C201" s="2" t="inlineStr">
+      <c r="C201" t="inlineStr">
         <is>
           <t>at</t>
         </is>
       </c>
-      <c r="D201" s="2" t="n">
+      <c r="D201" t="n">
         <v>3</v>
       </c>
-      <c r="E201" s="2" t="inlineStr">
+      <c r="E201" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F201" s="2" t="inlineStr">
+      <c r="F201" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G201" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H201" s="2" t="inlineStr">
+      <c r="G201" t="b">
+        <v>1</v>
+      </c>
+      <c r="H201" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I201" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J201" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K201" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L201" s="2" t="inlineStr">
+      <c r="I201" t="b">
+        <v>1</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K201" t="b">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="2" t="n">
+      <c r="A202" t="n">
         <v>18</v>
       </c>
-      <c r="B202" s="2" t="inlineStr">
+      <c r="B202" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C202" s="2" t="inlineStr">
+      <c r="C202" t="inlineStr">
         <is>
           <t>max</t>
         </is>
       </c>
-      <c r="D202" s="2" t="n">
+      <c r="D202" t="n">
         <v>4</v>
       </c>
-      <c r="E202" s="2" t="inlineStr">
+      <c r="E202" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F202" s="2" t="inlineStr">
+      <c r="F202" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G202" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H202" s="2" t="inlineStr">
+      <c r="G202" t="b">
+        <v>1</v>
+      </c>
+      <c r="H202" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I202" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J202" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K202" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L202" s="2" t="inlineStr">
+      <c r="I202" t="b">
+        <v>1</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K202" t="b">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="2" t="n">
+      <c r="A203" t="n">
         <v>18</v>
       </c>
-      <c r="B203" s="2" t="inlineStr">
+      <c r="B203" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C203" s="2" t="inlineStr">
+      <c r="C203" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="D203" s="2" t="n">
+      <c r="D203" t="n">
         <v>5</v>
       </c>
-      <c r="E203" s="2" t="inlineStr">
+      <c r="E203" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F203" s="2" t="inlineStr">
+      <c r="F203" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G203" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" s="2" t="inlineStr">
+      <c r="G203" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I203" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J203" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K203" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L203" s="2" t="inlineStr">
+      <c r="I203" t="b">
+        <v>1</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K203" t="b">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11029,7 +11029,7 @@
       </c>
       <c r="F204" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G204" s="2" t="b">
@@ -11053,7 +11053,7 @@
       </c>
       <c r="L204" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11081,7 +11081,7 @@
       </c>
       <c r="F205" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G205" s="2" t="b">
@@ -11105,7 +11105,7 @@
       </c>
       <c r="L205" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11133,7 +11133,7 @@
       </c>
       <c r="F206" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G206" s="2" t="b">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="L206" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="F213" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G213" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem1/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem1/67/word_level_predictions_67.xlsx
@@ -4477,7 +4477,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G78" t="b">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G79" t="b">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7054,468 +7054,468 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="n">
+      <c r="A128" t="n">
         <v>12</v>
       </c>
-      <c r="B128" s="2" t="inlineStr">
+      <c r="B128" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C128" s="2" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>Initiating</t>
         </is>
       </c>
-      <c r="D128" s="2" t="n">
+      <c r="D128" t="n">
         <v>7</v>
       </c>
-      <c r="E128" s="2" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F128" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G128" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J128" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L128" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G128" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I128" t="b">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K128" t="b">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="n">
+      <c r="A129" t="n">
         <v>12</v>
       </c>
-      <c r="B129" s="2" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C129" s="2" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D129" s="2" t="n">
+      <c r="D129" t="n">
         <v>8</v>
       </c>
-      <c r="E129" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F129" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G129" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J129" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L129" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G129" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I129" t="b">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K129" t="b">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="n">
+      <c r="A130" t="n">
         <v>12</v>
       </c>
-      <c r="B130" s="2" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C130" s="2" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D130" s="2" t="n">
+      <c r="D130" t="n">
         <v>9</v>
       </c>
-      <c r="E130" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F130" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G130" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H130" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J130" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L130" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G130" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I130" t="b">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K130" t="b">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="n">
+      <c r="A131" t="n">
         <v>12</v>
       </c>
-      <c r="B131" s="2" t="inlineStr">
+      <c r="B131" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C131" s="2" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D131" s="2" t="n">
+      <c r="D131" t="n">
         <v>10</v>
       </c>
-      <c r="E131" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F131" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G131" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J131" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L131" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G131" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I131" t="b">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="n">
+      <c r="A132" t="n">
         <v>12</v>
       </c>
-      <c r="B132" s="2" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C132" s="2" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>will</t>
         </is>
       </c>
-      <c r="D132" s="2" t="n">
+      <c r="D132" t="n">
         <v>11</v>
       </c>
-      <c r="E132" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F132" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G132" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J132" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L132" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G132" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I132" t="b">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n">
+      <c r="A133" t="n">
         <v>12</v>
       </c>
-      <c r="B133" s="2" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C133" s="2" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>now</t>
         </is>
       </c>
-      <c r="D133" s="2" t="n">
+      <c r="D133" t="n">
         <v>12</v>
       </c>
-      <c r="E133" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F133" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G133" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J133" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L133" s="2" t="inlineStr">
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G133" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I133" t="b">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K133" t="b">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="n">
+      <c r="A134" t="n">
         <v>12</v>
       </c>
-      <c r="B134" s="2" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C134" s="2" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>trigger</t>
         </is>
       </c>
-      <c r="D134" s="2" t="n">
+      <c r="D134" t="n">
         <v>13</v>
       </c>
-      <c r="E134" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F134" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G134" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J134" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L134" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G134" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I134" t="b">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K134" t="b">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="n">
+      <c r="A135" t="n">
         <v>12</v>
       </c>
-      <c r="B135" s="2" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C135" s="2" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>Auto</t>
         </is>
       </c>
-      <c r="D135" s="2" t="n">
+      <c r="D135" t="n">
         <v>14</v>
       </c>
-      <c r="E135" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F135" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G135" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J135" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L135" s="2" t="inlineStr">
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G135" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I135" t="b">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K135" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="n">
+      <c r="A136" t="n">
         <v>12</v>
       </c>
-      <c r="B136" s="2" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C136" s="2" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D136" s="2" t="n">
+      <c r="D136" t="n">
         <v>15</v>
       </c>
-      <c r="E136" s="2" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F136" s="2" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G136" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J136" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L136" s="2" t="inlineStr">
+      <c r="G136" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I136" t="b">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K136" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -8793,7 +8793,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G161" t="b">
@@ -8817,57 +8817,57 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="n">
+      <c r="A162" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B162" t="inlineStr">
+      <c r="B162" s="2" t="inlineStr">
         <is>
           <t>Drag a box around or tap a target on screen Then tap Go .</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
+      <c r="C162" s="2" t="inlineStr">
         <is>
           <t>Go</t>
         </is>
       </c>
-      <c r="D162" t="n">
+      <c r="D162" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="E162" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="F162" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G162" t="b">
-        <v>1</v>
-      </c>
-      <c r="H162" t="inlineStr">
+      <c r="G162" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H162" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I162" t="b">
-        <v>1</v>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K162" t="b">
-        <v>1</v>
-      </c>
-      <c r="L162" t="inlineStr">
+      <c r="I162" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J162" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K162" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L162" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -9446,678 +9446,678 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="n">
+      <c r="A174" t="n">
         <v>16</v>
       </c>
-      <c r="B174" s="2" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C174" s="2" t="inlineStr">
+      <c r="C174" t="inlineStr">
         <is>
           <t>Motor</t>
         </is>
       </c>
-      <c r="D174" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E174" s="2" t="inlineStr">
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F174" s="2" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G174" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L174" s="2" t="inlineStr">
+      <c r="G174" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I174" t="b">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K174" t="b">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="n">
+      <c r="A175" t="n">
         <v>16</v>
       </c>
-      <c r="B175" s="2" t="inlineStr">
+      <c r="B175" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C175" s="2" t="inlineStr">
+      <c r="C175" t="inlineStr">
         <is>
           <t>Obstructed</t>
         </is>
       </c>
-      <c r="D175" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E175" s="2" t="inlineStr">
+      <c r="D175" t="n">
+        <v>1</v>
+      </c>
+      <c r="E175" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F175" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G175" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J175" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L175" s="2" t="inlineStr">
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G175" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I175" t="b">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K175" t="b">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="n">
+      <c r="A176" t="n">
         <v>16</v>
       </c>
-      <c r="B176" s="2" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C176" s="2" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D176" s="2" t="n">
+      <c r="D176" t="n">
         <v>2</v>
       </c>
-      <c r="E176" s="2" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F176" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G176" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L176" s="2" t="inlineStr">
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G176" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I176" t="b">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K176" t="b">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="2" t="n">
+      <c r="A177" t="n">
         <v>16</v>
       </c>
-      <c r="B177" s="2" t="inlineStr">
+      <c r="B177" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C177" s="2" t="inlineStr">
+      <c r="C177" t="inlineStr">
         <is>
           <t>output</t>
         </is>
       </c>
-      <c r="D177" s="2" t="n">
+      <c r="D177" t="n">
         <v>3</v>
       </c>
-      <c r="E177" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F177" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G177" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J177" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L177" s="2" t="inlineStr">
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G177" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I177" t="b">
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K177" t="b">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="2" t="n">
+      <c r="A178" t="n">
         <v>16</v>
       </c>
-      <c r="B178" s="2" t="inlineStr">
+      <c r="B178" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C178" s="2" t="inlineStr">
+      <c r="C178" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D178" s="2" t="n">
+      <c r="D178" t="n">
         <v>4</v>
       </c>
-      <c r="E178" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F178" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G178" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J178" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L178" s="2" t="inlineStr">
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G178" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I178" t="b">
+        <v>1</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K178" t="b">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="2" t="n">
+      <c r="A179" t="n">
         <v>16</v>
       </c>
-      <c r="B179" s="2" t="inlineStr">
+      <c r="B179" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C179" s="2" t="inlineStr">
+      <c r="C179" t="inlineStr">
         <is>
           <t>limited</t>
         </is>
       </c>
-      <c r="D179" s="2" t="n">
+      <c r="D179" t="n">
         <v>5</v>
       </c>
-      <c r="E179" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F179" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G179" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L179" s="2" t="inlineStr">
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G179" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I179" t="b">
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K179" t="b">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="2" t="n">
+      <c r="A180" t="n">
         <v>16</v>
       </c>
-      <c r="B180" s="2" t="inlineStr">
+      <c r="B180" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C180" s="2" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D180" s="2" t="n">
+      <c r="D180" t="n">
         <v>6</v>
       </c>
-      <c r="E180" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F180" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G180" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L180" s="2" t="inlineStr">
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G180" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" t="b">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K180" t="b">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="2" t="n">
+      <c r="A181" t="n">
         <v>16</v>
       </c>
-      <c r="B181" s="2" t="inlineStr">
+      <c r="B181" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C181" s="2" t="inlineStr">
+      <c r="C181" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D181" s="2" t="n">
+      <c r="D181" t="n">
         <v>7</v>
       </c>
-      <c r="E181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L181" s="2" t="inlineStr">
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" t="b">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K181" t="b">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="n">
+      <c r="A182" t="n">
         <v>16</v>
       </c>
-      <c r="B182" s="2" t="inlineStr">
+      <c r="B182" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C182" s="2" t="inlineStr">
+      <c r="C182" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D182" s="2" t="n">
+      <c r="D182" t="n">
         <v>8</v>
       </c>
-      <c r="E182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L182" s="2" t="inlineStr">
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G182" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" t="b">
+        <v>1</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K182" t="b">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="2" t="n">
+      <c r="A183" t="n">
         <v>16</v>
       </c>
-      <c r="B183" s="2" t="inlineStr">
+      <c r="B183" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C183" s="2" t="inlineStr">
+      <c r="C183" t="inlineStr">
         <is>
           <t>health</t>
         </is>
       </c>
-      <c r="D183" s="2" t="n">
+      <c r="D183" t="n">
         <v>9</v>
       </c>
-      <c r="E183" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F183" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G183" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L183" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G183" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" t="b">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K183" t="b">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="n">
+      <c r="A184" t="n">
         <v>16</v>
       </c>
-      <c r="B184" s="2" t="inlineStr">
+      <c r="B184" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C184" s="2" t="inlineStr">
+      <c r="C184" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D184" s="2" t="n">
+      <c r="D184" t="n">
         <v>10</v>
       </c>
-      <c r="E184" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F184" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G184" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L184" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G184" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I184" t="b">
+        <v>1</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K184" t="b">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="2" t="n">
+      <c r="A185" t="n">
         <v>16</v>
       </c>
-      <c r="B185" s="2" t="inlineStr">
+      <c r="B185" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C185" s="2" t="inlineStr">
+      <c r="C185" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D185" s="2" t="n">
+      <c r="D185" t="n">
         <v>11</v>
       </c>
-      <c r="E185" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F185" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G185" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J185" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L185" s="2" t="inlineStr">
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G185" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I185" t="b">
+        <v>1</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K185" t="b">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="n">
+      <c r="A186" t="n">
         <v>16</v>
       </c>
-      <c r="B186" s="2" t="inlineStr">
+      <c r="B186" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C186" s="2" t="inlineStr">
+      <c r="C186" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D186" s="2" t="n">
+      <c r="D186" t="n">
         <v>12</v>
       </c>
-      <c r="E186" s="2" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F186" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G186" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L186" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G186" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I186" t="b">
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K186" t="b">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10694,312 +10694,312 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
+      <c r="A198" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C198" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D198" t="n">
-        <v>0</v>
-      </c>
-      <c r="E198" t="inlineStr">
+      <c r="D198" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G198" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" t="inlineStr">
+      <c r="F198" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G198" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I198" t="b">
-        <v>1</v>
-      </c>
-      <c r="J198" t="inlineStr">
+      <c r="I198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J198" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L198" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B199" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C199" s="2" t="inlineStr">
+        <is>
+          <t>ActiveTrack</t>
+        </is>
+      </c>
+      <c r="D199" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E199" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F199" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G199" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K198" t="b">
-        <v>1</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
+      <c r="I199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J199" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L199" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B200" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>ActiveTrack</t>
-        </is>
-      </c>
-      <c r="D199" t="n">
-        <v>1</v>
-      </c>
-      <c r="E199" t="inlineStr">
+      <c r="C200" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E200" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
+      <c r="F200" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G200" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H200" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I200" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J200" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K200" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L200" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B201" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C201" s="2" t="inlineStr">
+        <is>
+          <t>at</t>
+        </is>
+      </c>
+      <c r="D201" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E201" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G199" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" t="inlineStr">
+      <c r="F201" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G201" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H201" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I199" t="b">
-        <v>1</v>
-      </c>
-      <c r="J199" t="inlineStr">
+      <c r="I201" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J201" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K201" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L201" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B202" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C202" s="2" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="D202" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E202" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F202" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G202" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H202" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K199" t="b">
-        <v>1</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
+      <c r="I202" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J202" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K202" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L202" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B200" t="inlineStr">
+      <c r="B203" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D200" t="n">
-        <v>2</v>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G200" t="b">
-        <v>1</v>
-      </c>
-      <c r="H200" t="inlineStr">
+      <c r="C203" s="2" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="D203" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E203" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F203" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G203" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I200" t="b">
-        <v>1</v>
-      </c>
-      <c r="J200" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K200" t="b">
-        <v>1</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>18</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>at</t>
-        </is>
-      </c>
-      <c r="D201" t="n">
-        <v>3</v>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G201" t="b">
-        <v>1</v>
-      </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I201" t="b">
-        <v>1</v>
-      </c>
-      <c r="J201" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K201" t="b">
-        <v>1</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>18</v>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="D202" t="n">
-        <v>4</v>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G202" t="b">
-        <v>1</v>
-      </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I202" t="b">
-        <v>1</v>
-      </c>
-      <c r="J202" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K202" t="b">
-        <v>1</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>18</v>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>speed</t>
-        </is>
-      </c>
-      <c r="D203" t="n">
-        <v>5</v>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G203" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I203" t="b">
-        <v>1</v>
-      </c>
-      <c r="J203" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K203" t="b">
-        <v>1</v>
-      </c>
-      <c r="L203" t="inlineStr">
+      <c r="I203" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J203" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K203" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L203" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11029,7 +11029,7 @@
       </c>
       <c r="F204" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G204" s="2" t="b">
@@ -11053,7 +11053,7 @@
       </c>
       <c r="L204" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11081,7 +11081,7 @@
       </c>
       <c r="F205" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G205" s="2" t="b">
@@ -11105,7 +11105,7 @@
       </c>
       <c r="L205" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11133,7 +11133,7 @@
       </c>
       <c r="F206" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G206" s="2" t="b">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="L206" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="F213" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G213" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
